--- a/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41166,4 +41167,7470 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H196"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>136.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>153.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>111.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.2725</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>173.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>111.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>103.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.3530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.8218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0566</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>130.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.7239</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.5087</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.1688</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.0947</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.9898</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.8816</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.8578</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.5278</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>66.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.4910</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.1199</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.8908</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.8673</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.6959</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.6396</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.5741</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3840</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2426</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2067</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1338</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0672</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0039</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9446</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8745</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8675</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8225</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8078</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7913</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7820</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7080</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6888</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6719</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6497</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6472</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6308</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6244</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5459</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4342</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3506</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3479</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3154</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010879</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方宝升混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>36.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159752</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>申万菱信中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>516270</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华安中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010880</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>南方宝升混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005397</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>南方安养混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>011316</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>天弘创业板300指数A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011317</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>天弘创业板300指数C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -48633,4 +48634,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>195</v>
+      </c>
+      <c r="D2" t="n">
+        <v>127.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>411</v>
+      </c>
+      <c r="D3" t="n">
+        <v>233.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>308</v>
+      </c>
+      <c r="D4" t="n">
+        <v>207.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>349</v>
+      </c>
+      <c r="D5" t="n">
+        <v>240.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -48642,7 +48643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48653,17 +48654,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -48673,14 +48694,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>195</v>
-      </c>
-      <c r="D2" t="n">
-        <v>127.31</v>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -48689,14 +48732,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>411</v>
-      </c>
-      <c r="D3" t="n">
-        <v>233.34</v>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0232</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -48705,14 +48770,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>308</v>
-      </c>
-      <c r="D4" t="n">
-        <v>207.83</v>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -48721,13 +48808,8129 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0937</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>126.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8266</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6647</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.6347</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.4562</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.3848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.3740</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.7727</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.5884</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>58.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3858</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.0805</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7143</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6074</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5510</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4885</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4750</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4587</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.4311</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3058</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.3051</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2504</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1096</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0842</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0416</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0337</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0277</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9973</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9103</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8179</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7961</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7719</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7494</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7089</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7089</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6288</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5987</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5453</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5429</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5193</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5042</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4886</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>38.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4793</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4605</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4376</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3740</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3618</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.14</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005121</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>富国兴利增强债券</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>560000</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>浦银安盛中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>214</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>195</v>
+      </c>
+      <c r="D3" t="n">
+        <v>127.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>411</v>
+      </c>
+      <c r="D4" t="n">
+        <v>233.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>308</v>
+      </c>
+      <c r="D5" t="n">
+        <v>207.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>349</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>240.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -56829,7 +56830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56840,17 +56841,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -56860,14 +56881,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>214</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.05</v>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -56876,14 +56919,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>195</v>
-      </c>
-      <c r="D3" t="n">
-        <v>127.31</v>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>208.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0339</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -56892,14 +56957,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>411</v>
-      </c>
-      <c r="D4" t="n">
-        <v>233.34</v>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>113.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0801</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -56908,14 +56995,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>308</v>
-      </c>
-      <c r="D5" t="n">
-        <v>207.83</v>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>170.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -56924,13 +57033,6967 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3603</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>119.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.8432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>114.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.7536</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>111.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.5685</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.4308</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6795</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.2670</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.2579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.2335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.8354</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.8237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>50.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.6891</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>58.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.6438</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.3988</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.2980</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.2756</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.9841</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8850</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.6761</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.6526</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6428</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.4833</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.4245</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3200</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2880</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2682</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1569</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0556</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0429</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0321</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0304</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9362</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9293</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9100</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8597</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8449</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7989</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7916</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7508</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.7322</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7034</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6922</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6733</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6088</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5713</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5600</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5437</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5128</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4938</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4781</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4751</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3649</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>560000</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>浦银安盛中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>014985</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>184</v>
+      </c>
+      <c r="D2" t="n">
+        <v>133.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>214</v>
+      </c>
+      <c r="D3" t="n">
+        <v>120.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>195</v>
+      </c>
+      <c r="D4" t="n">
+        <v>127.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>411</v>
+      </c>
+      <c r="D5" t="n">
+        <v>233.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>308</v>
+      </c>
+      <c r="D6" t="n">
+        <v>207.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>349</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>240.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63876,7 +63877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63887,17 +63888,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -63907,14 +63928,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>184</v>
-      </c>
-      <c r="D2" t="n">
-        <v>133.39</v>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -63923,14 +63966,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>214</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.05</v>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>122.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -63939,14 +64004,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>195</v>
-      </c>
-      <c r="D4" t="n">
-        <v>127.31</v>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>169.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8803</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -63955,14 +64042,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>411</v>
-      </c>
-      <c r="D5" t="n">
-        <v>233.34</v>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>110.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4179</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -63971,14 +64080,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>308</v>
-      </c>
-      <c r="D6" t="n">
-        <v>207.83</v>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -63987,13 +64118,7471 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4704</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1046</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0685</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7069</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6754</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6258</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>52.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3772</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>54.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9732</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9120</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7319</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7106</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6251</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4906</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4523</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4135</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3442</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3171</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>46.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2773</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2382</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2363</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2190</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014528</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富MSCI中国A50互联互通ETF联接A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1149</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0917</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0872</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9940</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9873</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发招享混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9820</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9456</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9394</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9238</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9147</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.9139</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8215</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8173</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7876</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6616</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6514</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6308</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5674</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5554</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5508</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5124</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5052</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4962</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4924</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013048</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4304</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4253</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4219</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3834</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>九泰锐益定增灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>161613</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通创业板指数A\B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.82</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>013277</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>富国创业板指数C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004870</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>融通创业板指数C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>96.66</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>014997</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011290</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>013453</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>014218</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>014985</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>560000</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>浦银安盛中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>014219</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011291</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014172</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>015600</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D2" t="n">
+        <v>115.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>184</v>
+      </c>
+      <c r="D3" t="n">
+        <v>133.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>214</v>
+      </c>
+      <c r="D4" t="n">
+        <v>120.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>195</v>
+      </c>
+      <c r="D5" t="n">
+        <v>127.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>411</v>
+      </c>
+      <c r="D6" t="n">
+        <v>233.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>308</v>
+      </c>
+      <c r="D7" t="n">
+        <v>207.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>349</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>240.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
+++ b/数据整理/stocks/A股/创业板/300124-汇川技术.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D2" t="n">
-        <v>115.05</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D3" t="n">
-        <v>133.39</v>
+        <v>115.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D4" t="n">
-        <v>120.05</v>
+        <v>133.39</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D5" t="n">
-        <v>127.31</v>
+        <v>120.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>411</v>
+        <v>195</v>
       </c>
       <c r="D6" t="n">
-        <v>233.34</v>
+        <v>127.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="D7" t="n">
-        <v>207.83</v>
+        <v>233.34</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>308</v>
+      </c>
+      <c r="D8" t="n">
+        <v>207.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>349</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>240.2</v>
       </c>
     </row>
@@ -600,6 +617,8528 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H224"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>145.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4919</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3678</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1438</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1355</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4935</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3616</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2538</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9558</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6808</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6725</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6473</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富创新未来混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3206</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2567</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1974</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1823</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发招享混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1137</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0877</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0783</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0090</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9873</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9694</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8799</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8755</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8317</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7988</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7832</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7639</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7509</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7290</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6969</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6249</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5585</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>562990</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF联接C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5442</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5100</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4841</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4744</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4476</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159603</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4010</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3878</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159639</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>561190</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国创业板指数A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013048</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车ETF联接基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车ETF联接基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>560550</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>370027</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上投摩根智选30混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>九泰锐益灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>588390</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>161613</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通创业板指数增强A/B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012544</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF联接A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159641</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159640</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>560060</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159896</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银创业板ET</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159642</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>大成中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>平安粤港澳大湾区ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>014985</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011713</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中信保诚盛裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>588310</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>方正富邦中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华宝深证创新100ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>012543</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>嘉实中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>159701</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>招商中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>159778</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>鹏华中证工业互联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>013277</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>富国创业板指数C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004870</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>融通创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>004129</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>永赢深证创新100ETF</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>014218</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>014997</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>天弘创业板300ETF</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>562910</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>易方达中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>97.14</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>011714</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中信保诚盛裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>560000</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>浦银安盛中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>013453</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>012901</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>招商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>014219</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>012900</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>招商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>014964</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>014172</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>015600</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>015673</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>004130</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>国联安鑫汇混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>016400</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>上投摩根智选30混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>016010</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数E</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>016398</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>九泰锐益灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8171,7 +16710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15217,7 +23756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23403,7 +31942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30869,7 +39408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -46535,7 +55074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -58281,7 +66820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
